--- a/Query per popolare il DB/RiempimentoDB_ale.xlsx
+++ b/Query per popolare il DB/RiempimentoDB_ale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="816" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="816" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="EPISODI" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="distribuzione_ep" sheetId="10" r:id="rId10"/>
     <sheet name="produrre_ep" sheetId="11" r:id="rId11"/>
     <sheet name="partecipare_ep" sheetId="12" r:id="rId12"/>
+    <sheet name="VISIONE" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4521" uniqueCount="894">
   <si>
     <t>giorgio45</t>
   </si>
@@ -2709,6 +2710,18 @@
   </si>
   <si>
     <t>ATT30</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>ora</t>
+  </si>
+  <si>
+    <t>minutoArrivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     codEpisodio</t>
   </si>
 </sst>
 </file>
@@ -3082,7 +3095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14812,7 +14825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D520"/>
     </sheetView>
   </sheetViews>
@@ -23134,6 +23147,50 @@
       <c r="D520" t="str">
         <f>CONCATENATE("INSERT INTO partecipare_ep (",$A$1,",",$B$1,")"," VALUES ",partecipare_ep!C520)</f>
         <v>INSERT INTO partecipare_ep (codArtista,codEpisodio) VALUES ('REG11','J0110')</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E1" t="s">
+        <v>892</v>
+      </c>
+      <c r="F1" t="s">
+        <v>893</v>
+      </c>
+      <c r="G1" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/Query per popolare il DB/RiempimentoDB_ale.xlsx
+++ b/Query per popolare il DB/RiempimentoDB_ale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="816" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="816" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="EPISODI" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="produrre_ep" sheetId="11" r:id="rId11"/>
     <sheet name="partecipare_ep" sheetId="12" r:id="rId12"/>
     <sheet name="VISIONE" sheetId="13" r:id="rId13"/>
+    <sheet name="Foglio1" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4521" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4666" uniqueCount="894">
   <si>
     <t>giorgio45</t>
   </si>
@@ -2728,6 +2729,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -2770,7 +2774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2789,12 +2793,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFCB6B8"/>
+      <color rgb="FFFCBCF0"/>
+      <color rgb="FFF2F99D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3095,7 +3112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12509,7 +12526,7 @@
   <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23158,7 +23175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -23198,12 +23215,1184 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B6" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B11" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B13" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="B15" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="B17" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="B18" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B19" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B20" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="B21" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B22" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="B23" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B24" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B26" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B27" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="B29" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="B30" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B31" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="B32" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B33" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="B35" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="B36" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B37" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="B38" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B39" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B40" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B41" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B42" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B44" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B45" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="B46" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B47" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B48" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="B49" s="11">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="B50" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="B51" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B52" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="B53" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B55" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="B56" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B57" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B58" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="B59" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="B60" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B61" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B62" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B63" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="B64" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="B65" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="B66" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="B67" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="B68" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="B69" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="B70" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B71" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="B72" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B73" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="B74" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="B75" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="B76" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="B77" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="B78" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="B79" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B80" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="B81" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B82" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="B83" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B84" s="10">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="B85" s="10">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="B86" s="10">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="B87" s="10">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="B88" s="10">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="B89" s="10">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B90" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B91" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="B92" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="B93" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="B94" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="B95" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="B96" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="B97" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B98" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="B99" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B100" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="B101" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="B102" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="B103" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="B104" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="B105" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="B106" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="B107" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="B108" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B109" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="B110" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="B111" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="B112" s="10">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B113" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="B114" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="B115" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="B116" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="B117" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="B118" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="B119" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="B120" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="B121" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B122" s="10">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="B123" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B124" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B125" s="10">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>804</v>
+      </c>
+      <c r="B126" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>805</v>
+      </c>
+      <c r="B127" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>806</v>
+      </c>
+      <c r="B128" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>807</v>
+      </c>
+      <c r="B129" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>808</v>
+      </c>
+      <c r="B130" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>809</v>
+      </c>
+      <c r="B131" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>810</v>
+      </c>
+      <c r="B132" s="8">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>811</v>
+      </c>
+      <c r="B133" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>812</v>
+      </c>
+      <c r="B134" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>813</v>
+      </c>
+      <c r="B135" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>814</v>
+      </c>
+      <c r="B136" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>815</v>
+      </c>
+      <c r="B137" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>816</v>
+      </c>
+      <c r="B138" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>817</v>
+      </c>
+      <c r="B139" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>818</v>
+      </c>
+      <c r="B140" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>819</v>
+      </c>
+      <c r="B141" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>820</v>
+      </c>
+      <c r="B142" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>821</v>
+      </c>
+      <c r="B143" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>822</v>
+      </c>
+      <c r="B144" s="8">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D1" activeCellId="1" sqref="A1:A1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
